--- a/CashFlow/VFC_cashflow.xlsx
+++ b/CashFlow/VFC_cashflow.xlsx
@@ -790,19 +790,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3906118000.0</v>
+        <v>1560713000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3171673000.0</v>
+        <v>2743485000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1507935000.0</v>
+        <v>2530133000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-99687000.0</v>
+        <v>2425640000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-81294000.0</v>
+        <v>1142151000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-107967000.0</v>
@@ -1070,19 +1070,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>41162000.0</v>
+        <v>1618000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-13696000.0</v>
+        <v>1663000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-4304000.0</v>
+        <v>1318179000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-173084000.0</v>
+        <v>740631000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>-258767000.0</v>
+        <v>295806000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-50281000.0</v>
